--- a/Analysis/tables/Narea_pred_model.xlsx
+++ b/Analysis/tables/Narea_pred_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/NutNetPhys/Analysis/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251D687-D199-C643-83C9-11F46A1C0655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5BD17-0F5E-FB45-B785-9CB66043BC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17900" yWindow="6500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="2560" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narea_pred_model" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Var</t>
   </si>
@@ -916,13 +916,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1099,7 +1100,7 @@
         <v>9.4997892055931593E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>4.2010610126987897</v>
+        <v>1.26728215186298</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,8 +1119,8 @@
       <c r="E10" s="1">
         <v>0.33645664722393098</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
+      <c r="F10" s="2">
+        <v>1.23258687060318</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1138,8 +1139,8 @@
       <c r="E11" s="1">
         <v>0.45830562584374801</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
+      <c r="F11" s="2">
+        <v>1.0962931861393299</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1158,8 +1159,8 @@
       <c r="E12" s="1">
         <v>0.47646691766095001</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
+      <c r="F12" s="2">
+        <v>0.60489880409330299</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/tables/Narea_pred_model.xlsx
+++ b/Analysis/tables/Narea_pred_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/NutNetPhys/Analysis/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E5BD17-0F5E-FB45-B785-9CB66043BC3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A934C0D-A63F-8141-B510-44266A4B8736}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="2560" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17960" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Narea_pred_model" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>RelImp</t>
-  </si>
-  <si>
     <t>ln Nphoto</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>Relative Importance</t>
   </si>
 </sst>
 </file>
@@ -554,10 +554,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -916,7 +917,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,19 +949,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.53273686082534999</v>
+        <v>0.51999005635377105</v>
       </c>
       <c r="D2" s="1">
-        <v>8.9621011764188296E-2</v>
+        <v>9.1451990981480297E-2</v>
       </c>
       <c r="E2" s="1">
-        <v>2.0910114408567498E-9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>22.872482839002799</v>
+        <v>1.00451004079254E-8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>23.248516437693599</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,19 +969,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.954523937808475</v>
+        <v>0.95191716087175204</v>
       </c>
       <c r="D3" s="1">
-        <v>9.4632531009146807E-3</v>
+        <v>8.5038995856662695E-3</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <v>37.626172223080999</v>
+      <c r="F3" s="3">
+        <v>37.101807816901101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -988,19 +989,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>2.94226766954507E-48</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5.3854083716870802</v>
+        <v>2.81177763912933E-58</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5.2283856841646204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,19 +1009,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>0.70028813812179302</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.79438643375354</v>
+        <v>0.71885048633022097</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.8214794973311301</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,19 +1029,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>0.36573433037101399</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.6483058155745201</v>
+        <v>0.50568501053739001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.5335695250771799</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,19 +1049,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>1.37593687932679E-15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.3225113987677002</v>
+        <v>8.1035966827340394E-17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.4190929997844997</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,19 +1069,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
-        <v>8.8494327960680597E-20</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.38332397950317</v>
+        <v>3.0384325381465902E-21</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.9262544586997894</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1088,19 +1089,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
-        <v>9.4997892055931593E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.26728215186298</v>
+        <v>3.2949809096825601E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.2763755294413299</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,19 +1109,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>0.33645664722393098</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.23258687060318</v>
+        <v>0.59579950859943098</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.19035243608916</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1128,19 +1129,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>0.45830562584374801</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.0962931861393299</v>
+        <v>0.80298402508854305</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.11111870647406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>0.47646691766095001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.60489880409330299</v>
+        <v>0.98116941100215505</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.60164918721258598</v>
       </c>
     </row>
   </sheetData>
